--- a/InputData/bldgs/CpUDSC/Cost per Unit Dist Solar Cap.xlsx
+++ b/InputData/bldgs/CpUDSC/Cost per Unit Dist Solar Cap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\bldgs\CpUDSC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/or/bldgs/cpudsc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F11FE36-41F2-4CC9-B172-CB91A4E38E2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35AD1A7A-BD48-5C48-AE9D-321994E51E80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3135" yWindow="1260" windowWidth="21600" windowHeight="14550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3140" yWindow="1260" windowWidth="21600" windowHeight="14560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -476,7 +476,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -491,6 +491,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="12"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -509,14 +517,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="12"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Body: normal cell" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -872,17 +873,20 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="50.140625" customWidth="1"/>
+    <col min="2" max="2" width="50.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C1" s="20">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -890,117 +894,117 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
         <v>2015</v>
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B19" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="18" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -1021,19 +1025,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.85899999999999999</v>
       </c>
@@ -1041,10 +1045,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
     </row>
   </sheetData>
@@ -1059,18 +1063,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.83203125" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C3">
         <v>2018</v>
       </c>
@@ -1171,7 +1175,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1278,7 +1282,7 @@
         <v>602.42092125560248</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>21</v>
       </c>
@@ -1382,7 +1386,7 @@
         <v>857.6570833640435</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>22</v>
       </c>
@@ -1486,7 +1490,7 @@
         <v>1124.6145820191289</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>23</v>
       </c>
@@ -1590,7 +1594,7 @@
         <v>602.42092125560248</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>24</v>
       </c>
@@ -1694,7 +1698,7 @@
         <v>857.6570833640435</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>25</v>
       </c>
@@ -1798,7 +1802,7 @@
         <v>1124.6145820191289</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>26</v>
       </c>
@@ -1902,7 +1906,7 @@
         <v>602.42092125560248</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>27</v>
       </c>
@@ -2006,7 +2010,7 @@
         <v>857.6570833640435</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>28</v>
       </c>
@@ -2110,7 +2114,7 @@
         <v>1124.6145820191289</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>29</v>
       </c>
@@ -2214,7 +2218,7 @@
         <v>602.42092125560248</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>30</v>
       </c>
@@ -2318,7 +2322,7 @@
         <v>857.6570833640435</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>31</v>
       </c>
@@ -2422,7 +2426,7 @@
         <v>1124.6145820191289</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>32</v>
       </c>
@@ -2526,7 +2530,7 @@
         <v>602.42092125560248</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>33</v>
       </c>
@@ -2630,7 +2634,7 @@
         <v>857.6570833640435</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>34</v>
       </c>
@@ -2734,45 +2738,45 @@
         <v>1124.6145820191289</v>
       </c>
     </row>
-    <row r="20" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:35" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="10"/>
-    </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="16"/>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A21" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="13"/>
-    </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="19"/>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A22" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="13"/>
-    </row>
-    <row r="23" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="19"/>
+    </row>
+    <row r="23" spans="1:35" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="10"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2791,66 +2795,66 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="10">
         <v>0.63</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="10">
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="10">
         <v>0.35</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="11">
         <f>AVERAGE(B4:B5)</f>
         <v>0.59499999999999997</v>
       </c>
@@ -2869,21 +2873,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>54</v>
       </c>
       <c r="B1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -2892,7 +2896,7 @@
         <v>3255232.9117624536</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -2901,7 +2905,7 @@
         <v>3078322.0757814161</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2021</v>
       </c>
@@ -2910,7 +2914,7 @@
         <v>2901411.2398003791</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2022</v>
       </c>
@@ -2919,7 +2923,7 @@
         <v>2724500.4038193417</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2023</v>
       </c>
@@ -2928,7 +2932,7 @@
         <v>2547589.5678383047</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2024</v>
       </c>
@@ -2937,7 +2941,7 @@
         <v>2370678.7318572667</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2025</v>
       </c>
@@ -2946,7 +2950,7 @@
         <v>2193767.8958762302</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2026</v>
       </c>
@@ -2955,7 +2959,7 @@
         <v>2016857.059895193</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2027</v>
       </c>
@@ -2964,7 +2968,7 @@
         <v>1839946.223914156</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2028</v>
       </c>
@@ -2973,7 +2977,7 @@
         <v>1663035.387933119</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2029</v>
       </c>
@@ -2982,7 +2986,7 @@
         <v>1486124.551952082</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2030</v>
       </c>
@@ -2991,7 +2995,7 @@
         <v>1309213.7159710464</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2031</v>
       </c>
@@ -3000,7 +3004,7 @@
         <v>1293674.8627315189</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2032</v>
       </c>
@@ -3009,7 +3013,7 @@
         <v>1278136.009491991</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2033</v>
       </c>
@@ -3018,7 +3022,7 @@
         <v>1262597.1562524636</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2034</v>
       </c>
@@ -3027,7 +3031,7 @@
         <v>1247058.3030129359</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2035</v>
       </c>
@@ -3036,7 +3040,7 @@
         <v>1231519.449773408</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2036</v>
       </c>
@@ -3045,7 +3049,7 @@
         <v>1215980.5965338806</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2037</v>
       </c>
@@ -3054,7 +3058,7 @@
         <v>1200441.7432943531</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2038</v>
       </c>
@@ -3063,7 +3067,7 @@
         <v>1184902.8900548255</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2039</v>
       </c>
@@ -3072,7 +3076,7 @@
         <v>1169364.0368152976</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2040</v>
       </c>
@@ -3081,7 +3085,7 @@
         <v>1153825.1835757701</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2041</v>
       </c>
@@ -3090,7 +3094,7 @@
         <v>1138286.3303362424</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2042</v>
       </c>
@@ -3099,7 +3103,7 @@
         <v>1122747.4770967148</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2043</v>
       </c>
@@ -3108,7 +3112,7 @@
         <v>1107208.6238571871</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2044</v>
       </c>
@@ -3117,7 +3121,7 @@
         <v>1091669.7706176594</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2045</v>
       </c>
@@ -3126,7 +3130,7 @@
         <v>1076130.9173781318</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2046</v>
       </c>
@@ -3135,7 +3139,7 @@
         <v>1060592.0641386043</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2047</v>
       </c>
@@ -3144,7 +3148,7 @@
         <v>1045053.2108990765</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2048</v>
       </c>
@@ -3153,7 +3157,7 @@
         <v>1029514.3576595489</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2049</v>
       </c>
@@ -3162,7 +3166,7 @@
         <v>1013975.5044200213</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2050</v>
       </c>
@@ -3185,21 +3189,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>54</v>
       </c>
       <c r="B1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -3208,7 +3212,7 @@
         <v>1936863.5824986598</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -3217,7 +3221,7 @@
         <v>1831601.6350899425</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2021</v>
       </c>
@@ -3226,7 +3230,7 @@
         <v>1726339.6876812256</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2022</v>
       </c>
@@ -3235,7 +3239,7 @@
         <v>1621077.7402725082</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2023</v>
       </c>
@@ -3244,7 +3248,7 @@
         <v>1515815.7928637911</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2024</v>
       </c>
@@ -3253,7 +3257,7 @@
         <v>1410553.8454550738</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2025</v>
       </c>
@@ -3262,7 +3266,7 @@
         <v>1305291.8980463569</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2026</v>
       </c>
@@ -3271,7 +3275,7 @@
         <v>1200029.9506376397</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2027</v>
       </c>
@@ -3280,7 +3284,7 @@
         <v>1094768.0032289228</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2028</v>
       </c>
@@ -3289,7 +3293,7 @@
         <v>989506.05582020571</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2029</v>
       </c>
@@ -3298,7 +3302,7 @@
         <v>884244.10841148871</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2030</v>
       </c>
@@ -3307,7 +3311,7 @@
         <v>778982.16100277251</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2031</v>
       </c>
@@ -3316,7 +3320,7 @@
         <v>769736.54332525376</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2032</v>
       </c>
@@ -3325,7 +3329,7 @@
         <v>760490.92564773466</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2033</v>
       </c>
@@ -3334,7 +3338,7 @@
         <v>751245.3079702158</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2034</v>
       </c>
@@ -3343,7 +3347,7 @@
         <v>741999.69029269682</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2035</v>
       </c>
@@ -3352,7 +3356,7 @@
         <v>732754.07261517772</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2036</v>
       </c>
@@ -3361,7 +3365,7 @@
         <v>723508.45493765885</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2037</v>
       </c>
@@ -3370,7 +3374,7 @@
         <v>714262.83726014011</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2038</v>
       </c>
@@ -3379,7 +3383,7 @@
         <v>705017.21958262112</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2039</v>
       </c>
@@ -3388,7 +3392,7 @@
         <v>695771.60190510203</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2040</v>
       </c>
@@ -3397,7 +3401,7 @@
         <v>686525.98422758316</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2041</v>
       </c>
@@ -3406,7 +3410,7 @@
         <v>677280.36655006418</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2042</v>
       </c>
@@ -3415,7 +3419,7 @@
         <v>668034.74887254531</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2043</v>
       </c>
@@ -3424,7 +3428,7 @@
         <v>658789.13119502633</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2044</v>
       </c>
@@ -3433,7 +3437,7 @@
         <v>649543.51351750735</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2045</v>
       </c>
@@ -3442,7 +3446,7 @@
         <v>640297.89583998837</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2046</v>
       </c>
@@ -3451,7 +3455,7 @@
         <v>631052.27816246951</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2047</v>
       </c>
@@ -3460,7 +3464,7 @@
         <v>621806.66048495052</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2048</v>
       </c>
@@ -3469,7 +3473,7 @@
         <v>612561.04280743154</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2049</v>
       </c>
@@ -3478,7 +3482,7 @@
         <v>603315.42512991268</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2050</v>
       </c>

--- a/InputData/bldgs/CpUDSC/Cost per Unit Dist Solar Cap.xlsx
+++ b/InputData/bldgs/CpUDSC/Cost per Unit Dist Solar Cap.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/or/bldgs/cpudsc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/bldgs/cpudsc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35AD1A7A-BD48-5C48-AE9D-321994E51E80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E134BE-0C4F-AE48-9601-C143012FA823}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3140" yWindow="1260" windowWidth="21600" windowHeight="14560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
